--- a/VCB/BCTT.xlsx
+++ b/VCB/BCTT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN21"/>
+  <dimension ref="A1:BO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,11 @@
           <t>Q1/2025</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1096,6 +1101,11 @@
           <t>01/01-31/03</t>
         </is>
       </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>01/04-30/06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1428,6 +1438,11 @@
           <t>Hợp nhất</t>
         </is>
       </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Hợp nhất</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1756,6 +1771,11 @@
         </is>
       </c>
       <c r="BN4" t="inlineStr">
+        <is>
+          <t>Chưa kiểm toán</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
         <is>
           <t>Chưa kiểm toán</t>
         </is>
@@ -1848,6 +1868,7 @@
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1936,6 +1957,7 @@
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -2004,6 +2026,7 @@
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2336,6 +2359,11 @@
           <t>13687</t>
         </is>
       </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>14160</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2668,6 +2696,11 @@
           <t>806</t>
         </is>
       </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3000,6 +3033,11 @@
           <t>2024</t>
         </is>
       </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3326,6 +3364,11 @@
       <c r="BN11" t="inlineStr">
         <is>
           <t>36</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>-3</t>
         </is>
       </c>
     </row>
@@ -3592,6 +3635,11 @@
         </is>
       </c>
       <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3924,6 +3972,11 @@
           <t>663</t>
         </is>
       </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4256,6 +4309,11 @@
           <t>48</t>
         </is>
       </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4588,6 +4646,11 @@
           <t>5652</t>
         </is>
       </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>6025</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4920,6 +4983,11 @@
           <t>11612</t>
         </is>
       </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>11844</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5248,6 +5316,11 @@
           <t>752</t>
         </is>
       </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5580,6 +5653,11 @@
           <t>10860</t>
         </is>
       </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>11034</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5912,6 +5990,11 @@
           <t>8702</t>
         </is>
       </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>8837</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6244,6 +6327,11 @@
           <t>8696</t>
         </is>
       </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>8832</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6570,6 +6658,11 @@
       <c r="BN21" t="inlineStr">
         <is>
           <t>1041</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>1057</t>
         </is>
       </c>
     </row>

--- a/VCB/BCTT.xlsx
+++ b/VCB/BCTT.xlsx
@@ -2036,332 +2036,332 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1388421</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1635906</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1808344</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1731788</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1757133</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2461</t>
+          <t>2461204</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1819228</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2459568</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2806137</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2687089</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3684</t>
+          <t>3684320</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3891</t>
+          <t>3890536</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3300012</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2454796</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2748162</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2471474</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>2590866</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>2552601</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>2913590</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>2735443</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>2765619</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2806403</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>2945471</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>3257689</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>3496271</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>3568831</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3951</t>
+          <t>3950666</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>4437264</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>4532765</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>4617647</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>4488</t>
+          <t>4488492</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>4883</t>
+          <t>4883490</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>5275809</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5637</t>
+          <t>5636870</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>5248</t>
+          <t>5248083</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>5777</t>
+          <t>5776783</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6197099</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>6800</t>
+          <t>6799964</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>7431525</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7981</t>
+          <t>7980640</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>8499</t>
+          <t>8498757</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>8580</t>
+          <t>8579588</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>8859</t>
+          <t>8859286</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>8640</t>
+          <t>8639718</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>9034321</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>8077</t>
+          <t>8076890</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>8723174</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>10390</t>
+          <t>10390415</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>10082</t>
+          <t>10081733</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>11088</t>
+          <t>11087734</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>10428</t>
+          <t>10427846</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>10781</t>
+          <t>10781286</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>11976</t>
+          <t>11975852</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>12797</t>
+          <t>12797206</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>13664</t>
+          <t>13663951</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>14809</t>
+          <t>14809469</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>14203</t>
+          <t>14202946</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>14021</t>
+          <t>14020581</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>12596</t>
+          <t>12596118</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>12801</t>
+          <t>12801224</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>14078</t>
+          <t>14078056</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>13908</t>
+          <t>13907711</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>13578</t>
+          <t>13577636</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>13842</t>
+          <t>13842332</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>13687</t>
+          <t>13687153</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>14160</t>
+          <t>14160192</t>
         </is>
       </c>
     </row>
@@ -2373,332 +2373,332 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222459</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>262496</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239573</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>294070</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>283658</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>227050</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>187420</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>363887</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>245453</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>446130</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>315452</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>297479</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170050</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>487117</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>331131</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400301</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>382519</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>387997</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>408452</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>431966</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>424231</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435528</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>442047</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439950</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337577</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614893</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>441344</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>472335</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>538969</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>521167</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>521213</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529904</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>649989</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>664546</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>650693</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>575902</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>881368</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>851271</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>894914</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>773774</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1069406</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1075383</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1278485</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>885854</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1127210</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1155790</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1257047</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>3068538</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>3437781</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>428469</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1127266</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>2413557</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2710828</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>694629</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1102269</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2331342</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1456346</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1622113</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>891012</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1810252</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>1441564</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1498953</t>
         </is>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>1272260</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>923783</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>805964</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>860944</t>
         </is>
       </c>
     </row>
@@ -2710,332 +2710,332 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>270400</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>120154</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160968</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374935</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201135</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8985</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>189017</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>168047</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>399100</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>224471</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317961</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>238052</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352777</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>289444</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>325639</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>519892</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>476394</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>378028</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>420667</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150566</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>442475</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355921</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>277827</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>268856</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>471210</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>408545</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>648746</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44073</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>563949</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>474279</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>527947</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>283942</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>641691</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>423210</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>645436</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>332081</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614937</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>424425</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>569850</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>657217</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>928315</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>699280</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>907733</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>842604</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1107545</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>821053</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1034372</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>943429</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1042270</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>986338</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1173269</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1172943</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1521867</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1471713</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1587018</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1187847</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1705674</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>1480628</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1581192</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>892534</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1197631</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1160895</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1347041</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1586183</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023940</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1635290</t>
         </is>
       </c>
     </row>
@@ -3047,328 +3047,328 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26465</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>231917</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8470</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>514923</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164950</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14716</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8896</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2672</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3213</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-245</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>234</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22437</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9714</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106305</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94539</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6479</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6961</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7086</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66110</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6111</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70182</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56721</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96268</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37584</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20610</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40454</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141513</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203118</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110683</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>104126</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150055</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>135003</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>87216</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>277442</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209536</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>-170</t>
+          <t>-170034</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>-68</t>
+          <t>-67544</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65830</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18742</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31891</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29539</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-54447</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33363</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6576</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16318</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80773</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9376</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27991</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14026</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16525</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18628</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>-154</t>
+          <t>-154388</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29903</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59001</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41527</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6214</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22827</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1324</t>
         </is>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36148</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36488</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2625</t>
         </is>
       </c>
     </row>
@@ -3390,12 +3390,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74074</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-158649</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3406,12 +3406,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6182</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113831</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10698</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13982</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3441,137 +3441,137 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20599</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50953</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37783</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6257</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61136</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179895</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48448</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-19071</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43823</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50770</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57645</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19400</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-371</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-111</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-44316</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-44618</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-50320</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43996</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-217</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13201</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7220</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -3583,61 +3583,61 @@
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-85017</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-164</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84879</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1155</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1965</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1145</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2735</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
@@ -3649,332 +3649,332 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43691</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26771</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98289</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42975</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48058</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58415</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161317</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>301883</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35983</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>-317481</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-951</t>
+          <t>-950675</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-65537</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73737</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5381</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56282</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>389696</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18579</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127908</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>279304</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>507545</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>240776</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>526151</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>237747</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>782926</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194375</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>416360</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>402419</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>892117</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>285672</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>532064</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337980</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>782860</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>563055</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>344856</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585687</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>605936</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1602720</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>780021</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>650942</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>200683</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1166267</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>768010</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>883400</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>252462</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1039227</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>285877</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>539662</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>-64513</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1012369</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359543</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>451697</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>569652</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>483958</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>880941</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389465</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>299593</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1082775</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>258139</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520764</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>410491</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>508047</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24387</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>554617</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>1284653</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>662878</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1152928</t>
         </is>
       </c>
     </row>
@@ -3986,332 +3986,332 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36370</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>188019</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90621</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94355</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27114</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34769</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110105</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>324085</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80778</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50418</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35040</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>872581</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>185444</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92709</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12949</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105677</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79873</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93552</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>384293</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60597</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11105</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>138365</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>530</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7202</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49044</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8344</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10524</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15439</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25886</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19875</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103141</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34987</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23201</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>164438</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>350748</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194042</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37180</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1145497</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39111</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>162314</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33671</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10067</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31629</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>360154</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25619</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39176</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30670</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23317</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44716</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30998</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24495</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24345</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127264</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32313</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39530</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146603</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50548</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32273</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>159133</t>
         </is>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49396</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66379</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48303</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57892</t>
         </is>
       </c>
     </row>
@@ -4323,332 +4323,332 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>527903</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>738651</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>950970</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1250177</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>711087</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1419865</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>1035575</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1340871</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1269778</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1173496</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1289075</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1997297</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>1419011</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1068898</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1568258</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1938936</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>1332765</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1280166</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1574764</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025996</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1419875</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1640098</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>1594616</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>2170804</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1667018</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>1580040</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2705</t>
+          <t>2704983</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2346779</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>2367354</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2630525</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2503744</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2478081</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3149927</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>3179058</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3104067</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>2434484</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>4067409</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>3864021</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>3985542</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1692860</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>4384</t>
+          <t>4383645</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>4067396</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>4182</t>
+          <t>4182440</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>3186</t>
+          <t>3186384</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>4910290</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>3118</t>
+          <t>3118019</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4578828</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3430347</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>4779221</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>4731</t>
+          <t>4731291</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>5002</t>
+          <t>5002394</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3056781</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4509166</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>5816</t>
+          <t>5815802</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>6370</t>
+          <t>6370005</t>
         </is>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>4564916</t>
         </is>
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>5274254</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5656105</t>
         </is>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5232506</t>
         </is>
       </c>
       <c r="BI15" t="inlineStr">
         <is>
-          <t>5752</t>
+          <t>5752034</t>
         </is>
       </c>
       <c r="BJ15" t="inlineStr">
         <is>
-          <t>5054</t>
+          <t>5053949</t>
         </is>
       </c>
       <c r="BK15" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>5121793</t>
         </is>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5811433</t>
         </is>
       </c>
       <c r="BM15" t="inlineStr">
         <is>
-          <t>7040</t>
+          <t>7040187</t>
         </is>
       </c>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>5652</t>
+          <t>5652437</t>
         </is>
       </c>
       <c r="BO15" t="inlineStr">
         <is>
-          <t>6025</t>
+          <t>6024732</t>
         </is>
       </c>
     </row>
@@ -4660,332 +4660,332 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>1459903</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>1726613</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1529369</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1644219</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>1770961</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1352588</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>1440046</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2381534</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2295</t>
+          <t>2295001</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1903220</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>2112778</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>2832656</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>2685446</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>2271814</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2012210</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022044</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>2272898</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>2304664</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>2459238</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2252</t>
+          <t>2252039</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>2698885</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2555462</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2438</t>
+          <t>2438211</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>2754632</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>2973036</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>3524145</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2868781</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>3530676</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>3604608</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>3671473</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>3557</t>
+          <t>3556576</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>4088</t>
+          <t>4088055</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4137564</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4119</t>
+          <t>4119462</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>4183819</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>5095</t>
+          <t>5094671</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>5857</t>
+          <t>5856905</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>5395</t>
+          <t>5395238</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>5429</t>
+          <t>5428955</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>8997</t>
+          <t>8997407</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7384040</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7235921</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>7812</t>
+          <t>7812085</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>7481</t>
+          <t>7481080</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>7375</t>
+          <t>7375195</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>7615</t>
+          <t>7615108</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>7008</t>
+          <t>7007622</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>10963</t>
+          <t>10963016</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>10906</t>
+          <t>10906375</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>8163486</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>8250</t>
+          <t>8250391</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>11813</t>
+          <t>11812612</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>12224</t>
+          <t>12224195</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>10157</t>
+          <t>10156539</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>10344</t>
+          <t>10344419</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>14098</t>
+          <t>14097725</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>13243</t>
+          <t>13242920</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>11814</t>
+          <t>11814071</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>10545</t>
+          <t>10544771</t>
         </is>
       </c>
       <c r="BI16" t="inlineStr">
         <is>
-          <t>10207</t>
+          <t>10206801</t>
         </is>
       </c>
       <c r="BJ16" t="inlineStr">
         <is>
-          <t>12226</t>
+          <t>12226449</t>
         </is>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
-          <t>11630</t>
+          <t>11629816</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>11025</t>
+          <t>11024520</t>
         </is>
       </c>
       <c r="BM16" t="inlineStr">
         <is>
-          <t>10670</t>
+          <t>10670350</t>
         </is>
       </c>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>11612</t>
+          <t>11612289</t>
         </is>
       </c>
       <c r="BO16" t="inlineStr">
         <is>
-          <t>11844</t>
+          <t>11843505</t>
         </is>
       </c>
     </row>
@@ -5002,323 +5002,323 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>256746</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152662</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-249</t>
+          <t>-249136</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>353225</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194355</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>943517</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400467</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>593512</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>702097</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1717386</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>950388</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1089349</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>535298</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>655103</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>807607</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1166802</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>1070764</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>499367</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1198236</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1209801</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1104961</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1058881</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1517264</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>1829132</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>1370994</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1350703</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>1305197</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>1699480</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>1510057</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1896832</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1400661</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1601565</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1504276</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1691913</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1497550</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>1737816</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>1762456</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2381</t>
+          <t>2380860</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1505886</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1810654</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1502813</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1971078</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2152</t>
+          <t>2152448</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>1856218</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024552</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>3884</t>
+          <t>3883562</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>2274909</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>3225109</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2512537</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>3748198</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>2273939</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>2733452</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>2778197</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1678630</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021576</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2536389</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1493607</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>-1487</t>
+          <t>-1486696</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1508210</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1513541</t>
         </is>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>325576</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-32330</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>752356</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>809590</t>
         </is>
       </c>
     </row>
@@ -5330,332 +5330,332 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>1459903</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>1469867</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1376707</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1893355</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>1417735</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1352588</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>1245691</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>1438017</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1894534</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>1309708</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1410681</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1115270</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>1735058</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1182465</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1476912</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1366941</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1465291</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1137862</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1388474</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>1752672</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1500649</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1345661</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>1333250</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1695751</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1455772</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1695013</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1497787</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2179973</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>2299411</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1971993</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>2046519</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>2191223</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>2736903</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2517897</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>2679543</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>3402758</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>4359355</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>3657422</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>3666499</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>6617</t>
+          <t>6616547</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>5878154</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>5425</t>
+          <t>5425267</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>6309272</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>5510002</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5222747</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>5759</t>
+          <t>5758890</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>4983</t>
+          <t>4983070</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>7079</t>
+          <t>7079454</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>8631</t>
+          <t>8631466</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>4938377</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5737854</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>8064</t>
+          <t>8064414</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>9950</t>
+          <t>9950256</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>7423</t>
+          <t>7423087</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>7566</t>
+          <t>7566222</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>12419095</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11221</t>
+          <t>11221344</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>9278</t>
+          <t>9277682</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>9051</t>
+          <t>9051164</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>11693</t>
+          <t>11693497</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>10718</t>
+          <t>10718239</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
-          <t>10116</t>
+          <t>10116275</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>10699</t>
+          <t>10698944</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>10702680</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>10860</t>
+          <t>10859933</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>11034</t>
+          <t>11033915</t>
         </is>
       </c>
     </row>
@@ -5667,332 +5667,332 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1115033</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1169473</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1066999</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1471954</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1072623</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1034128</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>931166</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1141593</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1441003</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>992556</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1067070</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>740516</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1346885</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>910234</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1108898</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1059181</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1117221</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>867219</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>1043099</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1343734</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1169852</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>1059970</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1041780</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>1338673</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1134612</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1324674</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>1175762</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>1698059</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>1840982</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>1580011</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1641511</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>1774</t>
+          <t>1774363</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>2210</t>
+          <t>2209645</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020830</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>2148620</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2727803</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>3507873</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>2931640</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>2938</t>
+          <t>2938354</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>5280125</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>4711</t>
+          <t>4710901</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>4365</t>
+          <t>4364807</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>5052</t>
+          <t>5051595</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4400374</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>4182655</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>4615</t>
+          <t>4615185</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>3995811</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5673803</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>6907522</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>3960100</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4599288</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>6456800</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>7967</t>
+          <t>7967426</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>5942</t>
+          <t>5941931</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>6069444</t>
         </is>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
-          <t>9934</t>
+          <t>9933519</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>8992</t>
+          <t>8991901</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>7428</t>
+          <t>7427958</t>
         </is>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>7275</t>
+          <t>7274556</t>
         </is>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>9360</t>
+          <t>9360033</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>8586</t>
+          <t>8585993</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr">
         <is>
-          <t>8125</t>
+          <t>8124709</t>
         </is>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>8572494</t>
         </is>
       </c>
       <c r="BM19" t="inlineStr">
         <is>
-          <t>8570</t>
+          <t>8569931</t>
         </is>
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>8702</t>
+          <t>8701726</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>8837</t>
+          <t>8837371</t>
         </is>
       </c>
     </row>
@@ -6004,332 +6004,332 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1110660</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1165044</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>1062758</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>1461600</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>1067939</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1034128</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>926475</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1139242</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1434549</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>986326</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1057984</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>741765</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1341868</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>906821</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1105721</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1054868</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1112451</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>860694</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1039892</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1335702</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1165965</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1056947</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1038769</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>1329398</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1131529</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>1321072</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1172115</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1689008</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>1836686</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>1576187</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>1636862</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1767842</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>2206007</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2016293</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>2144097</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>2720979</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>3503948</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>2926763</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>2934626</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>5276169</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>4707</t>
+          <t>4707336</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>4361</t>
+          <t>4360932</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>5048342</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4397313</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>4178</t>
+          <t>4177915</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>4609910</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>3990903</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>5667519</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>6903</t>
+          <t>6902578</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>3956</t>
+          <t>3955531</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4594130</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>6451</t>
+          <t>6451239</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>7962</t>
+          <t>7962184</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5936954</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>6065</t>
+          <t>6064870</t>
         </is>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
-          <t>9928</t>
+          <t>9928277</t>
         </is>
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>8986</t>
+          <t>8986435</t>
         </is>
       </c>
       <c r="BG20" t="inlineStr">
         <is>
-          <t>7423</t>
+          <t>7422823</t>
         </is>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>7269</t>
+          <t>7268919</t>
         </is>
       </c>
       <c r="BI20" t="inlineStr">
         <is>
-          <t>9355</t>
+          <t>9355026</t>
         </is>
       </c>
       <c r="BJ20" t="inlineStr">
         <is>
-          <t>8580</t>
+          <t>8579996</t>
         </is>
       </c>
       <c r="BK20" t="inlineStr">
         <is>
-          <t>8119</t>
+          <t>8119414</t>
         </is>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>8567</t>
+          <t>8566598</t>
         </is>
       </c>
       <c r="BM20" t="inlineStr">
         <is>
-          <t>8565</t>
+          <t>8565388</t>
         </is>
       </c>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>8696</t>
+          <t>8696229</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>8832</t>
+          <t>8831885</t>
         </is>
       </c>
     </row>
